--- a/important doc/gathered-data.xlsx
+++ b/important doc/gathered-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\campuz\4 yr\Research-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\campuz\4 yr\Research-final\important doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760E4F6-E560-4E69-BC11-B3863B211167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6570DDF-9E2F-4575-9ADE-607F3503FEC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4027940-66A8-4E62-9B70-15157D4CF9F3}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>2015/2016/2017/2018/2019</t>
   </si>
   <si>
-    <t>landing preparing</t>
-  </si>
-  <si>
     <t>vegitative phase</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>note that these date can be vary in 7 days</t>
+  </si>
+  <si>
+    <t>Germination</t>
   </si>
 </sst>
 </file>
@@ -219,44 +219,44 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,518 +574,510 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2D55B7-CA43-489E-8EBD-9F81674FCE80}">
   <dimension ref="F3:CC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD26" sqref="AD26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="1"/>
-      <c r="BZ3" s="1"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
+      <c r="BD3" s="13"/>
+      <c r="BE3" s="13"/>
+      <c r="BF3" s="13"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="13"/>
+      <c r="BI3" s="13"/>
+      <c r="BJ3" s="13"/>
+      <c r="BK3" s="13"/>
+      <c r="BL3" s="13"/>
+      <c r="BM3" s="13"/>
+      <c r="BN3" s="13"/>
+      <c r="BO3" s="13"/>
+      <c r="BP3" s="13"/>
+      <c r="BQ3" s="13"/>
+      <c r="BR3" s="13"/>
+      <c r="BS3" s="13"/>
+      <c r="BT3" s="13"/>
+      <c r="BU3" s="13"/>
+      <c r="BV3" s="13"/>
+      <c r="BW3" s="13"/>
+      <c r="BX3" s="13"/>
+      <c r="BY3" s="13"/>
+      <c r="BZ3" s="13"/>
+      <c r="CA3" s="13"/>
+      <c r="CB3" s="13"/>
+      <c r="CC3" s="13"/>
     </row>
     <row r="4" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="13"/>
+      <c r="BR4" s="13"/>
+      <c r="BS4" s="13"/>
+      <c r="BT4" s="13"/>
+      <c r="BU4" s="13"/>
+      <c r="BV4" s="13"/>
+      <c r="BW4" s="13"/>
+      <c r="BX4" s="13"/>
+      <c r="BY4" s="13"/>
+      <c r="BZ4" s="13"/>
+      <c r="CA4" s="13"/>
+      <c r="CB4" s="13"/>
+      <c r="CC4" s="13"/>
     </row>
     <row r="5" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="1"/>
-      <c r="BS5" s="1"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="1"/>
-      <c r="BZ5" s="1"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
+      <c r="BP5" s="13"/>
+      <c r="BQ5" s="13"/>
+      <c r="BR5" s="13"/>
+      <c r="BS5" s="13"/>
+      <c r="BT5" s="13"/>
+      <c r="BU5" s="13"/>
+      <c r="BV5" s="13"/>
+      <c r="BW5" s="13"/>
+      <c r="BX5" s="13"/>
+      <c r="BY5" s="13"/>
+      <c r="BZ5" s="13"/>
+      <c r="CA5" s="13"/>
+      <c r="CB5" s="13"/>
+      <c r="CC5" s="13"/>
     </row>
     <row r="7" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2" t="s">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2" t="s">
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2" t="s">
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2" t="s">
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2" t="s">
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2" t="s">
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2" t="s">
+      <c r="BA7" s="17"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="17"/>
+      <c r="BD7" s="17"/>
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2" t="s">
+      <c r="BG7" s="17"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="17"/>
+      <c r="BJ7" s="17"/>
+      <c r="BK7" s="17"/>
+      <c r="BL7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2" t="s">
+      <c r="BM7" s="17"/>
+      <c r="BN7" s="17"/>
+      <c r="BO7" s="17"/>
+      <c r="BP7" s="17"/>
+      <c r="BQ7" s="17"/>
+      <c r="BR7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="BS7" s="2"/>
-      <c r="BT7" s="2"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2" t="s">
+      <c r="BS7" s="17"/>
+      <c r="BT7" s="17"/>
+      <c r="BU7" s="17"/>
+      <c r="BV7" s="17"/>
+      <c r="BW7" s="17"/>
+      <c r="BX7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BY7" s="2"/>
-      <c r="BZ7" s="2"/>
-      <c r="CA7" s="2"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
+      <c r="BY7" s="17"/>
+      <c r="BZ7" s="17"/>
+      <c r="CA7" s="17"/>
+      <c r="CB7" s="17"/>
+      <c r="CC7" s="17"/>
     </row>
     <row r="8" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="Y9" s="8" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="Y9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
     </row>
     <row r="10" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="AF10" s="7" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="AF10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="9"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="1"/>
     </row>
     <row r="11" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="AN11" s="5" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="AN11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
     </row>
     <row r="12" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="AU12" s="6" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="AU12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="10"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="2"/>
     </row>
     <row r="14" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="BM15" s="3" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="BM15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
     </row>
     <row r="16" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="BQ16" s="4" t="s">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="BQ16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BR16" s="4"/>
-      <c r="BS16" s="4"/>
-      <c r="BT16" s="4"/>
-      <c r="BU16" s="4"/>
-      <c r="BV16" s="4"/>
-      <c r="BW16" s="4"/>
-      <c r="BX16" s="4"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
+      <c r="BT16" s="12"/>
+      <c r="BU16" s="12"/>
+      <c r="BV16" s="12"/>
+      <c r="BW16" s="12"/>
+      <c r="BX16" s="12"/>
     </row>
     <row r="17" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="BY17" s="5" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="BY17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="BZ17" s="5"/>
-      <c r="CA17" s="5"/>
-      <c r="CB17" s="5"/>
-      <c r="CC17" s="5"/>
+      <c r="BZ17" s="7"/>
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="7"/>
+      <c r="CC17" s="7"/>
     </row>
     <row r="18" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="L18" s="11" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="L18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
     </row>
     <row r="22" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="6:81" x14ac:dyDescent="0.3">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="Q23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="Q23" t="s">
+      <c r="AA23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="6:81" x14ac:dyDescent="0.3">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="Q24" t="s">
         <v>24</v>
       </c>
-      <c r="AA23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="Q24" t="s">
+    </row>
+    <row r="25" spans="6:81" x14ac:dyDescent="0.3">
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="Q25" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="6:81" x14ac:dyDescent="0.3">
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="Q25" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BY17:CC17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="BM15:BP15"/>
-    <mergeCell ref="AF10:AM10"/>
-    <mergeCell ref="AN11:AT11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BQ16:BX16"/>
     <mergeCell ref="J3:CC5"/>
     <mergeCell ref="F8:H12"/>
     <mergeCell ref="F14:H18"/>
@@ -1102,6 +1094,14 @@
     <mergeCell ref="AB7:AG7"/>
     <mergeCell ref="AH7:AM7"/>
     <mergeCell ref="AN7:AS7"/>
+    <mergeCell ref="BY17:CC17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L18:S18"/>
+    <mergeCell ref="BM15:BP15"/>
+    <mergeCell ref="AF10:AM10"/>
+    <mergeCell ref="AN11:AT11"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="BQ16:BX16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
